--- a/biology/Microbiologie/Microbacteriaceae/Microbacteriaceae.xlsx
+++ b/biology/Microbiologie/Microbacteriaceae/Microbacteriaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Microbacteriaceae sont une famille de protéobactéries de l'ordre des Micrococcales, dont le genre type est Microbacterium[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Microbacteriaceae sont une famille de protéobactéries de l'ordre des Micrococcales, dont le genre type est Microbacterium.
 Ce sont des bactéries du sol à Gram positif dont certaines espèces sont phytopathogènes.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (14 août 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (14 août 2014) :
 genre Agreia
 genre Agrococcus
 genre Agromyces
@@ -536,7 +550,7 @@
 genre Salinibacterium
 genre Subtercola
 genre Zimmermannella
-Selon World Register of Marine Species                               (14 août 2014)[3] :
+Selon World Register of Marine Species                               (14 août 2014) :
 genre Agrococcus Groth, Schumann, Weiss, Martin &amp; Rainey, 1996
 genre Agromyces (Gledhill &amp; Casida, 1969) emend. Zgurskaya, Evtushenko, Akimov, Voyevoda, Dobrovolskaya, Lysak &amp; Kalakoutskii
 genre Clavibacter Davis, Gillaspsie, Vidaver &amp; Harris, 1984
@@ -577,9 +591,11 @@
           <t>Liste des genres, espèces, sous-espèces et non-classés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (14 août 2014)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (14 août 2014) :
 genre Agreia
 Agreia bicolorata
 Agreia pratensis
